--- a/resob11191935.xlsx
+++ b/resob11191935.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C72767B6-F76A-461D-8642-B5B6DF032334}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{343EE9BF-33A2-4723-AA45-7D336FDE138B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimization</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +441,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -939,6 +951,9 @@
       <c r="W7">
         <v>21.93767355754397</v>
       </c>
+      <c r="Y7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -1010,6 +1025,9 @@
       <c r="W8">
         <v>38.772544661936919</v>
       </c>
+      <c r="Y8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -1080,6 +1098,9 @@
       </c>
       <c r="W9">
         <v>13.75029840057293</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
